--- a/Inventario cartas MMC.xlsx
+++ b/Inventario cartas MMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b104cf4df42a362a/Escritorio/Personal/UniAndes/Desarrollo de proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{C0A05006-899A-4C82-B081-E2E713CDF342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62171EF-A322-429D-9F4E-61514387DE64}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{C0A05006-899A-4C82-B081-E2E713CDF342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44690F7E-048E-4C55-9F31-F59D62CE73AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{798CC9FE-54B3-427D-8AEB-33351A4D7505}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
   <si>
     <t>Tipo de archivo</t>
   </si>
@@ -80,9 +80,6 @@
     <t>MMC_COR_PER_1984_DOC002.jpg</t>
   </si>
   <si>
-    <t>Dirigida a Belisario Betancur agradeciendo asistencia a Eduardo Carranza en España.</t>
-  </si>
-  <si>
     <t>Dedicatoria en libro</t>
   </si>
   <si>
@@ -108,14 +105,418 @@
   </si>
   <si>
     <t>MMC_COR_PER_1993_DOC004.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_DOC004.jpg</t>
+  </si>
+  <si>
+    <t>Carta enviada por poeta (no se reconoce la firma)</t>
+  </si>
+  <si>
+    <t>Enviada por Alfonso López Michelsen con una sonata</t>
+  </si>
+  <si>
+    <t>Dirigida a Belisario Betancur agradeciendo asistencia a Eduardo Carranza en España</t>
+  </si>
+  <si>
+    <t>Poema mecanografiado</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_DOC014.jpg</t>
+  </si>
+  <si>
+    <t>"Soneto en júbilo a MMC" de Juan Zapata Olivella</t>
+  </si>
+  <si>
+    <t>Tarjeta de Navidad</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_DOC015_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_DOC015_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el pintor colombiano Alfredo Granados</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_DOC016_FOL002v.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta y traductor suizo Rudolf Peyer</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1994_EXP001_DOC001_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Invitación mecanografiada</t>
+  </si>
+  <si>
+    <t>Enviada por la académica Maria Irene Ramalho de Sousa Santos para invitarla al Segundo Encuentro Internacional de Poetas y a participar en la Revista Crítica de Ciencias Sociais de la Universidad de Coimbra</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC003.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Rodrigo Zuleta (habla de la lectura de MMC sobre Borges)</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC007_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC007_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC007_FOL003r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC009.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta venezolano Luis Pastori</t>
+  </si>
+  <si>
+    <t>Enviada por Álvaro Mutis sobre la vida y obra de José Asunción Silva</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviada por Beatriz Mendoza Sagarzazu, poeta y educadora venezolana, en la que halaga el poemario </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hola, soledad</t>
+    </r>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1995_DOC010.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC005_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta español José Agustín Goytisolo </t>
+  </si>
+  <si>
+    <t>Nota mecanografiada</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC006.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por la concejal Aida Avella</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC010_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC010_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta y ensayista venezolano Eugenio Montejo</t>
+  </si>
+  <si>
+    <t>Nota manuscrita</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC013_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta, crítico y periodista argentino Jorge Boccanera</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1996_DOC013_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por la poetisa Maruja Vieira</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC003_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Álvaro Castaño Castillo sobre grabación de Eduardo Carranza para la HJCK</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC005.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC007.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por la antropóloga especialista en estudios afrocolombainos Nina S. de Friedemann</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC012.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Isaías Peña</t>
+  </si>
+  <si>
+    <t>Poema mecanografiado y carta manuscrita</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC015_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1997_DOC015_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Juan Gustavo Cobo Borda</t>
+  </si>
+  <si>
+    <t>Enviada por Aída Avella</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC001_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC001_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC004.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta argentino Marcos Silber</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC008.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta cubano Víctor Rodríguez Núñez</t>
+  </si>
+  <si>
+    <t>Enviada por Antanas Mockus</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC009_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por la novelista y poetisa mexicana Myriam Moscona</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC012_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta venezolano Juan Liscano</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC012_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC012_FOL003r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC011_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC011_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC013_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC013_FOL003r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC013_FOL003v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1998_DOC013_FOL002v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1999_DOC003_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Alberto Casas Santamaría</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1999_DOC004.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta brasileño Thiago de Mello</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1999_DOC008.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_1999_DOC014.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta ecuatoriano Edwin Madrid</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2000_DOC001_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2000_DOC001_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta José Luis Díaz Granados</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2001_DOC014.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por MMC al poeta español Francisco José Cruz</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC004_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC004_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>Enviado por la poetisa cubana Emilia Gallego con intermediación de Melibea</t>
+  </si>
+  <si>
+    <t>Tarjeta manuscrita</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC005.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Enviado por el delegado del diario</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> La Razón</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en Castilla y León</t>
+    </r>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC013.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Ernesto Samper donde le agradece por el libro de Fernando Charry Lara</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC018.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por MMC al poeta peruano Alberto Benavides, fundador del centro cultural Antares</t>
+  </si>
+  <si>
+    <t>Carta mecanografiada (?)</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2002_DOC019.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por MMC al poeta peruano Luis La Hoz</t>
+  </si>
+  <si>
+    <t>Telegrama</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_2003_DOC013.jpg</t>
+  </si>
+  <si>
+    <t>Enviado por Alejandro Obregón agradeciéndole por un libro</t>
+  </si>
+  <si>
+    <t>¿2003?</t>
+  </si>
+  <si>
+    <t>s.f.</t>
+  </si>
+  <si>
+    <t>Enviada por el escritor y crítico literario peruano Julio Ortega</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC010.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC018.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Cecilia de Lleras ofreciendo ayuda económica para el viaje de Melibea a Florida</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_EXP002_DOC018_FOL002r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Belisario Betancur donde le propone hacer un diccionario de los piedracielistas y uno para leer a León de Greiff</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_EXP002_DOC03.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Belisario Betancur donde le habla sobre la poesía de García Lorca</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC019_FOL001r.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Enrique Peñalosa</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC019_FOL001v.jpg</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC020.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por Jordi Virallonga, presidente del Aula de Poesía de Barcelona donde hace referencia a José Agustín</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC024.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta y diplomático venezolano Vicente Gerbasi</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC029.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta y ensayista cubano Roberto Fernández Retamar</t>
+  </si>
+  <si>
+    <t>MMC_COR_PER_sf_DOC047.jpg</t>
+  </si>
+  <si>
+    <t>Enviada por el poeta Darío Jaramillo Agudelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,11 +544,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34225A2-7C37-497B-84CB-2CFE19BBF1A6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,35 +963,35 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>31205</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>32446</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,10 +1002,10 @@
         <v>32911</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,10 +1016,882 @@
         <v>34205</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>399715</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>34669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>34669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>34669</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>34699</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34431</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34834</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34996</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34996</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34996</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>35013</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>35185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1">
+        <v>35198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>34864</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>34864</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1">
+        <v>35382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1">
+        <v>35382</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1">
+        <v>35482</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>35530</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>35620</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>35657</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>1997</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>1997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>35920</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35920</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>35827</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35870</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35992</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <v>36002</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>36002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1">
+        <v>36016</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>36016</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>36016</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>36062</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>36062</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>36062</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>36062</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="3">
+        <v>36312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1">
+        <v>36346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1">
+        <v>36484</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1">
+        <v>36454</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
+        <v>36563</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1">
+        <v>36563</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>37238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="3">
+        <v>37377</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="3">
+        <v>37377</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1">
+        <v>37398</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1">
+        <v>37471</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <v>2002</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61">
+        <v>2002</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>